--- a/results/profit3.xlsx
+++ b/results/profit3.xlsx
@@ -450,7 +450,7 @@
         <v>2024</v>
       </c>
       <c r="B2" t="n">
-        <v>5336466.063861886</v>
+        <v>5313003.180512537</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2025</v>
       </c>
       <c r="B3" t="n">
-        <v>5352897.126465322</v>
+        <v>5300075.972846739</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2026</v>
       </c>
       <c r="B4" t="n">
-        <v>5440454.273399861</v>
+        <v>5423539.16591339</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>2027</v>
       </c>
       <c r="B5" t="n">
-        <v>5498624.381230078</v>
+        <v>5425939.5051241</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>2028</v>
       </c>
       <c r="B6" t="n">
-        <v>5634925.490632857</v>
+        <v>5615152.292524686</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>2029</v>
       </c>
       <c r="B7" t="n">
-        <v>5770853.146187448</v>
+        <v>5719081.922860635</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>2030</v>
       </c>
       <c r="B8" t="n">
-        <v>5896049.432808398</v>
+        <v>5889281.947266743</v>
       </c>
     </row>
   </sheetData>

--- a/results/profit3.xlsx
+++ b/results/profit3.xlsx
@@ -1,37 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seren\Desktop\CUMCM\CUMCM-2024\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC48192E-1E86-411A-9161-AFE731E0F80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +92,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,88 +419,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>profit</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2024</v>
       </c>
-      <c r="B2" t="n">
-        <v>5313003.180512537</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2">
+        <v>6663003.1805125372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2025</v>
       </c>
-      <c r="B3" t="n">
-        <v>5300075.972846739</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3">
+        <v>6650075.972846739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2026</v>
       </c>
-      <c r="B4" t="n">
-        <v>5423539.16591339</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4">
+        <v>6773539.16591339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2027</v>
       </c>
-      <c r="B5" t="n">
-        <v>5425939.5051241</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5">
+        <v>6775939.5051240996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2028</v>
       </c>
-      <c r="B6" t="n">
-        <v>5615152.292524686</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>6805152.2925246898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>2029</v>
       </c>
-      <c r="B7" t="n">
-        <v>5719081.922860635</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>6829081.9228606401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>2030</v>
       </c>
-      <c r="B8" t="n">
-        <v>5889281.947266743</v>
+      <c r="B8">
+        <v>6839281.9472667398</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/profit3.xlsx
+++ b/results/profit3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seren\Desktop\CUMCM\CUMCM-2024\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC48192E-1E86-411A-9161-AFE731E0F80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD37860F-E2D8-4B4B-94C2-52F16BB87DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -441,7 +441,7 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>6663003.1805125372</v>
+        <v>5763003.18051254</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -449,7 +449,7 @@
         <v>2025</v>
       </c>
       <c r="B3">
-        <v>6650075.972846739</v>
+        <v>5750075.9728467399</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -457,7 +457,7 @@
         <v>2026</v>
       </c>
       <c r="B4">
-        <v>6773539.16591339</v>
+        <v>55873539.165913299</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -465,7 +465,7 @@
         <v>2027</v>
       </c>
       <c r="B5">
-        <v>6775939.5051240996</v>
+        <v>5875939.5051240996</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -473,7 +473,7 @@
         <v>2028</v>
       </c>
       <c r="B6">
-        <v>6805152.2925246898</v>
+        <v>5865152.2925246898</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -481,7 +481,7 @@
         <v>2029</v>
       </c>
       <c r="B7">
-        <v>6829081.9228606401</v>
+        <v>5969081.9228606401</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -489,7 +489,7 @@
         <v>2030</v>
       </c>
       <c r="B8">
-        <v>6839281.9472667398</v>
+        <v>6039281.9472667426</v>
       </c>
     </row>
   </sheetData>
